--- a/PFF_HTRA1/110724_analysis_by_image.xlsx
+++ b/PFF_HTRA1/110724_analysis_by_image.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="n">
         <v>56054</v>
@@ -525,10 +525,10 @@
         <v>2708</v>
       </c>
       <c r="E4" t="n">
-        <v>8790</v>
+        <v>6281</v>
       </c>
       <c r="F4" t="n">
-        <v>396</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
         <v>76589</v>
@@ -855,7 +855,7 @@
         <v>31</v>
       </c>
       <c r="E19" t="n">
-        <v>4139</v>
+        <v>1484</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C31" t="n">
         <v>30318</v>
@@ -1119,10 +1119,10 @@
         <v>439</v>
       </c>
       <c r="E31" t="n">
-        <v>4390</v>
+        <v>685</v>
       </c>
       <c r="F31" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">

--- a/PFF_HTRA1/110724_analysis_by_image.xlsx
+++ b/PFF_HTRA1/110724_analysis_by_image.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,22 +446,37 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Number_of_Nuclei</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Cell_Area</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion_Area</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>HTRA_Area</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Inclusion_Area</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Overlap_Area</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap_to_Inclusion_Area</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap_to_HTRA_Area</t>
         </is>
       </c>
     </row>
@@ -475,16 +490,25 @@
         <v>12</v>
       </c>
       <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
         <v>40834</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9109</v>
       </c>
       <c r="E2" t="n">
         <v>1404</v>
       </c>
       <c r="F2" t="n">
+        <v>9109</v>
+      </c>
+      <c r="G2" t="n">
         <v>242</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1723646723646724</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.02656713140849709</v>
       </c>
     </row>
     <row r="3">
@@ -497,16 +521,25 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
         <v>21252</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4029</v>
       </c>
       <c r="E3" t="n">
         <v>1649</v>
       </c>
       <c r="F3" t="n">
+        <v>4029</v>
+      </c>
+      <c r="G3" t="n">
         <v>224</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1358399029714979</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.05559692231322909</v>
       </c>
     </row>
     <row r="4">
@@ -519,16 +552,25 @@
         <v>43</v>
       </c>
       <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
         <v>56054</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2708</v>
       </c>
       <c r="E4" t="n">
         <v>6281</v>
       </c>
       <c r="F4" t="n">
+        <v>2708</v>
+      </c>
+      <c r="G4" t="n">
         <v>288</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.04585257124661678</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1063515509601182</v>
       </c>
     </row>
     <row r="5">
@@ -541,16 +583,25 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
+        <v>42</v>
+      </c>
+      <c r="D5" t="n">
         <v>8982</v>
-      </c>
-      <c r="D5" t="n">
-        <v>133</v>
       </c>
       <c r="E5" t="n">
         <v>1674</v>
       </c>
       <c r="F5" t="n">
+        <v>133</v>
+      </c>
+      <c r="G5" t="n">
         <v>56</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.03345280764635603</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="6">
@@ -563,16 +614,25 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
         <v>28092</v>
-      </c>
-      <c r="D6" t="n">
-        <v>34</v>
       </c>
       <c r="E6" t="n">
         <v>1477</v>
       </c>
       <c r="F6" t="n">
+        <v>34</v>
+      </c>
+      <c r="G6" t="n">
         <v>13</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.008801624915368992</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3823529411764706</v>
       </c>
     </row>
     <row r="7">
@@ -585,16 +645,25 @@
         <v>73</v>
       </c>
       <c r="C7" t="n">
+        <v>29</v>
+      </c>
+      <c r="D7" t="n">
         <v>125645</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8792</v>
       </c>
       <c r="E7" t="n">
         <v>8953</v>
       </c>
       <c r="F7" t="n">
+        <v>8792</v>
+      </c>
+      <c r="G7" t="n">
         <v>689</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.07695744443203395</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.07836669699727025</v>
       </c>
     </row>
     <row r="8">
@@ -607,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -618,6 +687,11 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -629,16 +703,25 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
         <v>52901</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3235</v>
       </c>
       <c r="E9" t="n">
         <v>1238</v>
       </c>
       <c r="F9" t="n">
+        <v>3235</v>
+      </c>
+      <c r="G9" t="n">
         <v>186</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1502423263327948</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.05749613601236476</v>
       </c>
     </row>
     <row r="10">
@@ -651,16 +734,25 @@
         <v>16</v>
       </c>
       <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="n">
         <v>15177</v>
-      </c>
-      <c r="D10" t="n">
-        <v>478</v>
       </c>
       <c r="E10" t="n">
         <v>1415</v>
       </c>
       <c r="F10" t="n">
+        <v>478</v>
+      </c>
+      <c r="G10" t="n">
         <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.002120141342756184</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.006276150627615063</v>
       </c>
     </row>
     <row r="11">
@@ -673,16 +765,25 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
+        <v>21</v>
+      </c>
+      <c r="D11" t="n">
         <v>52011</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7206</v>
       </c>
       <c r="E11" t="n">
         <v>4212</v>
       </c>
       <c r="F11" t="n">
+        <v>7206</v>
+      </c>
+      <c r="G11" t="n">
         <v>971</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.2305318138651472</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1347488204274216</v>
       </c>
     </row>
     <row r="12">
@@ -695,16 +796,25 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" t="n">
         <v>18569</v>
-      </c>
-      <c r="D12" t="n">
-        <v>491</v>
       </c>
       <c r="E12" t="n">
         <v>109</v>
       </c>
       <c r="F12" t="n">
+        <v>491</v>
+      </c>
+      <c r="G12" t="n">
         <v>45</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4128440366972477</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.09164969450101833</v>
       </c>
     </row>
     <row r="13">
@@ -717,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -728,6 +838,11 @@
       <c r="F13" t="n">
         <v>0</v>
       </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -739,16 +854,25 @@
         <v>36</v>
       </c>
       <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
         <v>104215</v>
-      </c>
-      <c r="D14" t="n">
-        <v>46512</v>
       </c>
       <c r="E14" t="n">
         <v>6802</v>
       </c>
       <c r="F14" t="n">
+        <v>46512</v>
+      </c>
+      <c r="G14" t="n">
         <v>3071</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.4514848573948839</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.06602597179222566</v>
       </c>
     </row>
     <row r="15">
@@ -761,16 +885,25 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" t="n">
         <v>10950</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4933</v>
       </c>
       <c r="E15" t="n">
         <v>304</v>
       </c>
       <c r="F15" t="n">
+        <v>4933</v>
+      </c>
+      <c r="G15" t="n">
         <v>239</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.7861842105263158</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.04844921954186094</v>
       </c>
     </row>
     <row r="16">
@@ -783,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -794,6 +927,11 @@
       <c r="F16" t="n">
         <v>0</v>
       </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -805,16 +943,25 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
+        <v>19</v>
+      </c>
+      <c r="D17" t="n">
         <v>21859</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9614</v>
       </c>
       <c r="E17" t="n">
         <v>410</v>
       </c>
       <c r="F17" t="n">
+        <v>9614</v>
+      </c>
+      <c r="G17" t="n">
         <v>312</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7609756097560976</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.03245267318493863</v>
       </c>
     </row>
     <row r="18">
@@ -827,15 +974,24 @@
         <v>11</v>
       </c>
       <c r="C18" t="n">
+        <v>27</v>
+      </c>
+      <c r="D18" t="n">
         <v>27670</v>
-      </c>
-      <c r="D18" t="n">
-        <v>162</v>
       </c>
       <c r="E18" t="n">
         <v>499</v>
       </c>
       <c r="F18" t="n">
+        <v>162</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -849,15 +1005,24 @@
         <v>11</v>
       </c>
       <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
         <v>76589</v>
-      </c>
-      <c r="D19" t="n">
-        <v>31</v>
       </c>
       <c r="E19" t="n">
         <v>1484</v>
       </c>
       <c r="F19" t="n">
+        <v>31</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -871,16 +1036,25 @@
         <v>7</v>
       </c>
       <c r="C20" t="n">
+        <v>32</v>
+      </c>
+      <c r="D20" t="n">
         <v>17463</v>
-      </c>
-      <c r="D20" t="n">
-        <v>7180</v>
       </c>
       <c r="E20" t="n">
         <v>1214</v>
       </c>
       <c r="F20" t="n">
+        <v>7180</v>
+      </c>
+      <c r="G20" t="n">
         <v>942</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.7759472817133443</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1311977715877437</v>
       </c>
     </row>
     <row r="21">
@@ -893,16 +1067,25 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
+        <v>39</v>
+      </c>
+      <c r="D21" t="n">
         <v>103857</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5758</v>
       </c>
       <c r="E21" t="n">
         <v>3232</v>
       </c>
       <c r="F21" t="n">
+        <v>5758</v>
+      </c>
+      <c r="G21" t="n">
         <v>569</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1760519801980198</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.09881903438693991</v>
       </c>
     </row>
     <row r="22">
@@ -915,16 +1098,25 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
         <v>14776</v>
-      </c>
-      <c r="D22" t="n">
-        <v>84</v>
       </c>
       <c r="E22" t="n">
         <v>228</v>
       </c>
       <c r="F22" t="n">
+        <v>84</v>
+      </c>
+      <c r="G22" t="n">
         <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.131578947368421</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="23">
@@ -937,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -948,6 +1140,11 @@
       <c r="F23" t="n">
         <v>0</v>
       </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -959,17 +1156,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="n">
         <v>8579</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -981,16 +1183,25 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
+        <v>20</v>
+      </c>
+      <c r="D25" t="n">
         <v>27796</v>
-      </c>
-      <c r="D25" t="n">
-        <v>5866</v>
       </c>
       <c r="E25" t="n">
         <v>610</v>
       </c>
       <c r="F25" t="n">
+        <v>5866</v>
+      </c>
+      <c r="G25" t="n">
         <v>578</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9475409836065574</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.09853392430958063</v>
       </c>
     </row>
     <row r="26">
@@ -1003,15 +1214,24 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
+        <v>31</v>
+      </c>
+      <c r="D26" t="n">
         <v>18260</v>
-      </c>
-      <c r="D26" t="n">
-        <v>434</v>
       </c>
       <c r="E26" t="n">
         <v>1649</v>
       </c>
       <c r="F26" t="n">
+        <v>434</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1025,15 +1245,24 @@
         <v>4</v>
       </c>
       <c r="C27" t="n">
+        <v>21</v>
+      </c>
+      <c r="D27" t="n">
         <v>18623</v>
-      </c>
-      <c r="D27" t="n">
-        <v>104</v>
       </c>
       <c r="E27" t="n">
         <v>207</v>
       </c>
       <c r="F27" t="n">
+        <v>104</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1047,15 +1276,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>38</v>
+      </c>
+      <c r="D28" t="n">
         <v>19033</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>1344</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1069,16 +1305,25 @@
         <v>21</v>
       </c>
       <c r="C29" t="n">
+        <v>19</v>
+      </c>
+      <c r="D29" t="n">
         <v>24353</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3196</v>
       </c>
       <c r="E29" t="n">
         <v>3764</v>
       </c>
       <c r="F29" t="n">
+        <v>3196</v>
+      </c>
+      <c r="G29" t="n">
         <v>983</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.2611583421891605</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.3075719649561953</v>
       </c>
     </row>
     <row r="30">
@@ -1091,15 +1336,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="n">
         <v>21839</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>5112</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1113,16 +1365,25 @@
         <v>11</v>
       </c>
       <c r="C31" t="n">
+        <v>22</v>
+      </c>
+      <c r="D31" t="n">
         <v>30318</v>
-      </c>
-      <c r="D31" t="n">
-        <v>439</v>
       </c>
       <c r="E31" t="n">
         <v>685</v>
       </c>
       <c r="F31" t="n">
+        <v>439</v>
+      </c>
+      <c r="G31" t="n">
         <v>10</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0145985401459854</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.02277904328018223</v>
       </c>
     </row>
     <row r="32">
@@ -1135,15 +1396,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>21</v>
+      </c>
+      <c r="D32" t="n">
         <v>14372</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>12182</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1157,15 +1425,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="n">
         <v>30308</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>11216</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1179,15 +1454,24 @@
         <v>22</v>
       </c>
       <c r="C34" t="n">
+        <v>16</v>
+      </c>
+      <c r="D34" t="n">
         <v>113716</v>
-      </c>
-      <c r="D34" t="n">
-        <v>772</v>
       </c>
       <c r="E34" t="n">
         <v>5506</v>
       </c>
       <c r="F34" t="n">
+        <v>772</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1201,16 +1485,25 @@
         <v>6</v>
       </c>
       <c r="C35" t="n">
+        <v>48</v>
+      </c>
+      <c r="D35" t="n">
         <v>27396</v>
-      </c>
-      <c r="D35" t="n">
-        <v>12841</v>
       </c>
       <c r="E35" t="n">
         <v>2655</v>
       </c>
       <c r="F35" t="n">
+        <v>12841</v>
+      </c>
+      <c r="G35" t="n">
         <v>1837</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.6919020715630885</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.1430573942839343</v>
       </c>
     </row>
     <row r="36">
@@ -1223,16 +1516,25 @@
         <v>13</v>
       </c>
       <c r="C36" t="n">
+        <v>24</v>
+      </c>
+      <c r="D36" t="n">
         <v>18701</v>
-      </c>
-      <c r="D36" t="n">
-        <v>14375</v>
       </c>
       <c r="E36" t="n">
         <v>1962</v>
       </c>
       <c r="F36" t="n">
+        <v>14375</v>
+      </c>
+      <c r="G36" t="n">
         <v>1468</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.7482161060142711</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.1021217391304348</v>
       </c>
     </row>
     <row r="37">
@@ -1245,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1256,6 +1558,11 @@
       <c r="F37" t="n">
         <v>0</v>
       </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1267,16 +1574,25 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
+        <v>25</v>
+      </c>
+      <c r="D38" t="n">
         <v>28721</v>
-      </c>
-      <c r="D38" t="n">
-        <v>9034</v>
       </c>
       <c r="E38" t="n">
         <v>1135</v>
       </c>
       <c r="F38" t="n">
+        <v>9034</v>
+      </c>
+      <c r="G38" t="n">
         <v>1100</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.9691629955947136</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.1217622315696259</v>
       </c>
     </row>
     <row r="39">
@@ -1289,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1300,6 +1616,11 @@
       <c r="F39" t="n">
         <v>0</v>
       </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1311,16 +1632,25 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
+        <v>30</v>
+      </c>
+      <c r="D40" t="n">
         <v>18878</v>
-      </c>
-      <c r="D40" t="n">
-        <v>11351</v>
       </c>
       <c r="E40" t="n">
         <v>1579</v>
       </c>
       <c r="F40" t="n">
+        <v>11351</v>
+      </c>
+      <c r="G40" t="n">
         <v>835</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.5288157061431286</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.07356180072240331</v>
       </c>
     </row>
     <row r="41">
@@ -1333,10 +1663,10 @@
         <v>4</v>
       </c>
       <c r="C41" t="n">
+        <v>29</v>
+      </c>
+      <c r="D41" t="n">
         <v>33733</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>560</v>
@@ -1344,6 +1674,13 @@
       <c r="F41" t="n">
         <v>0</v>
       </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
